--- a/biology/Zoologie/Ada_cendré/Ada_cendré.xlsx
+++ b/biology/Zoologie/Ada_cendré/Ada_cendré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ada_cendr%C3%A9</t>
+          <t>Ada_cendré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Knipolegus striaticeps
 L'Ada cendré (Knipolegus striaticeps) est une espèce de passereaux de la famille des Tyrannidae. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ada_cendr%C3%A9</t>
+          <t>Ada_cendré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se rencontre en Argentine, en Bolivie, au Brésil et au Paraguay[1]. Son habitat naturel est les zones de broussailles des montagnes sèches tropicales ou subtropicales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se rencontre en Argentine, en Bolivie, au Brésil et au Paraguay. Son habitat naturel est les zones de broussailles des montagnes sèches tropicales ou subtropicales.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ada_cendr%C3%A9</t>
+          <t>Ada_cendré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans leur description de 1837, d'Orbigny et Lafresnaye indiquent que cette espèce mesure 140 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans leur description de 1837, d'Orbigny et Lafresnaye indiquent que cette espèce mesure 140 mm.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ada_cendr%C3%A9</t>
+          <t>Ada_cendré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,14 +590,16 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Knipolegus striaticeps (Orbigny &amp; Lafresnaye, 1837)[3].
-L'espèce a été initialement classée dans le genre Muscisaxicola sous le protonyme Muscisaxicola striaticeps Orbigny &amp; Lafresnaye, 1837[4],[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Ada cendré[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Knipolegus striaticeps (Orbigny &amp; Lafresnaye, 1837).
+L'espèce a été initialement classée dans le genre Muscisaxicola sous le protonyme Muscisaxicola striaticeps Orbigny &amp; Lafresnaye, 1837,.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Ada cendré.
 Knipolegus striaticeps a pour synonymes :
-Muscisaxicola striaticeps Orbigny &amp; Lafresnaye, 1837[4]
-Cnipolegus cinereus P.L. Sclater, 1870[5]</t>
+Muscisaxicola striaticeps Orbigny &amp; Lafresnaye, 1837
+Cnipolegus cinereus P.L. Sclater, 1870</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ada_cendr%C3%A9</t>
+          <t>Ada_cendré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(la) Alcide d'Orbigny et A. de Lafresnaye, « Synopsis Avium, in ejus per Americam meridionalem itinere, collectarum et ab ipso viatore necnon », Magasin de zoologie, d'anatomie comparée et de palaeontologie, Paris, Guérin-Méneville, vol. 7, no 2,‎ 1837, p. 1-88 (ISSN 1259-6515 et 2540-4989, OCLC 19951925, lire en ligne)</t>
         </is>
